--- a/medicine/Sexualité et sexologie/Romance_(film,_1999)/Romance_(film,_1999).xlsx
+++ b/medicine/Sexualité et sexologie/Romance_(film,_1999)/Romance_(film,_1999).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Romance est un film français réalisé par Catherine Breillat, sorti en 1999[1]. (Le film est répertorié comme Romance par le CNC. L'« X » dans le logotype utilisé sur certains marchés ne fait pas partie du titre[2].)
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Romance est un film français réalisé par Catherine Breillat, sorti en 1999. (Le film est répertorié comme Romance par le CNC. L'« X » dans le logotype utilisé sur certains marchés ne fait pas partie du titre.)
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Une jeune femme, Marie (Caroline Ducey), vit avec son compagnon, Paul (Sagamore Stévenin), une relation frustrante sur les plans émotionnel et sexuel. Elle a une relation sexuelle avec Paolo (Rocco Siffredi), un homme rencontré dans un bar. Son désir d'apaiser sa frustration la conduit ensuite à une série de relations, souvent éphémères, jusqu'à entamer un rapport sadomasochiste avec un homme plus âgé.
 </t>
@@ -542,9 +556,11 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Sauf mention contraire, cette fiche technique est établie à partir d'IMDb[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Sauf mention contraire, cette fiche technique est établie à partir d'IMDb.
 Titre original : Romance
 Réalisation : Catherine Breillat
 Scénario : Catherine Breillat
@@ -556,14 +572,14 @@
 Musique : Raphaël Tidas, DJ Valentin
 Montage : Agnès Guillemot
 Production : Jean-François Lepetit, Catherine Jacques
-Sociétés de production[4] : Flach Film, CB Films, Arte France Cinéma, Centre National de la Cinématographie (CNC), Procirep, Canal+
+Sociétés de production : Flach Film, CB Films, Arte France Cinéma, Centre National de la Cinématographie (CNC), Procirep, Canal+
 Sociétés de distribution : Canvas (Belgique), Trimark Pictures, Vidmark Entertainment (États-Unis), Rézo Films, Éditions Montparnasse (France)
 Pays d'origine :  France
 Langue : anglais, français
-Format[5] : couleurs - 1,66:1 - Dolby Digital - 35 mm
+Format : couleurs - 1,66:1 - Dolby Digital - 35 mm
 Genre : drame, érotique
 Durée : 99 minutes
-Dates de sorties en salles[6] :
+Dates de sorties en salles :
 France et Belgique : 14 avril 1999
 États-Unis : 8 octobre 1999
 Classification :
@@ -595,12 +611,14 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Caroline Ducey : Marie[7],[8]
-Sagamore Stévenin : Paul[9]
-François Berléand : Robert[10]
-Rocco Siffredi : Paolo[11]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Caroline Ducey : Marie,
+Sagamore Stévenin : Paul
+François Berléand : Robert
+Rocco Siffredi : Paolo
 Emma Colberti : Charlotte
 HPG, Roberto Malone, Fovéa : les participants à l'orgie
 Reza Habouhossein : l'homme dans l'escalier
@@ -636,7 +654,9 @@
           <t>Bande originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Spanish Storme par D'Shadeaux men de 1997.
@@ -671,9 +691,14 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Accueil critique
-Sur l'agrégateur américain Rotten Tomatoes, le film récolte 50 % d'opinions favorables pour 34 critiques[13]. Sur Metacritic, il obtient une note moyenne de 49⁄100 pour 26 critiques[12].
-En France, le site Allociné propose une note moyenne de 3,2⁄5 à partir de l'interprétation de critiques provenant de 18 titres de presse[14].
+          <t>Accueil critique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sur l'agrégateur américain Rotten Tomatoes, le film récolte 50 % d'opinions favorables pour 34 critiques. Sur Metacritic, il obtient une note moyenne de 49⁄100 pour 26 critiques.
+En France, le site Allociné propose une note moyenne de 3,2⁄5 à partir de l'interprétation de critiques provenant de 18 titres de presse.
 </t>
         </is>
       </c>
@@ -702,7 +727,9 @@
           <t>Distinction</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Nomination au prix du meilleur film étranger, lors des British Independent Film Awards 1999.</t>
         </is>
@@ -732,9 +759,11 @@
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Actes sexuels non simulés : le film, bien que non pornographique, contient un certain nombre d'actes sexuels non simulés[15]. Ainsi, Caroline Ducey prend le sexe de Sagamore Stévenin dans sa bouche (fellation non complète) et le sexe en érection de Rocco Siffredi à pleines mains (masturbation). La véracité de la pénétration de Rocco Siffredi sur Caroline Ducey a par ailleurs été contestée par Caroline Ducey, mais confirmée par Rocco Siffredi[16]. Des actes sexuels non simulés (pénétrations, éjaculation) sont effectués par des acteurs pornographiques dans une scène.</t>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Actes sexuels non simulés : le film, bien que non pornographique, contient un certain nombre d'actes sexuels non simulés. Ainsi, Caroline Ducey prend le sexe de Sagamore Stévenin dans sa bouche (fellation non complète) et le sexe en érection de Rocco Siffredi à pleines mains (masturbation). La véracité de la pénétration de Rocco Siffredi sur Caroline Ducey a par ailleurs été contestée par Caroline Ducey, mais confirmée par Rocco Siffredi. Des actes sexuels non simulés (pénétrations, éjaculation) sont effectués par des acteurs pornographiques dans une scène.</t>
         </is>
       </c>
     </row>
